--- a/ThesisMainProject/Study4VR/VR Data.xlsx
+++ b/ThesisMainProject/Study4VR/VR Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srirajaiyer/Documents/ThesisMainProject/Study4VR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/ThesisMainProject/ThesisMainProject/Study4VR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA836B81-546B-9542-862E-4277B530F8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F886DA77-AC19-894E-B729-F8BB18AE50DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22400" windowHeight="15940" activeTab="4" xr2:uid="{825F4B24-3A96-6F43-ABCB-19DC36A55CD5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" activeTab="5" xr2:uid="{825F4B24-3A96-6F43-ABCB-19DC36A55CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Data3" sheetId="7" r:id="rId3"/>
     <sheet name="Data4" sheetId="8" r:id="rId4"/>
     <sheet name="Data5" sheetId="9" r:id="rId5"/>
-    <sheet name="OMSObjectives" sheetId="5" r:id="rId6"/>
-    <sheet name="DataDictionary" sheetId="3" r:id="rId7"/>
-    <sheet name="SeverityScale" sheetId="4" r:id="rId8"/>
+    <sheet name="Data6" sheetId="10" r:id="rId6"/>
+    <sheet name="OMSObjectives" sheetId="5" r:id="rId7"/>
+    <sheet name="DataDictionary" sheetId="3" r:id="rId8"/>
+    <sheet name="SeverityScale" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="635">
   <si>
     <t>t1Diagnoses</t>
   </si>
@@ -1710,6 +1711,243 @@
   </si>
   <si>
     <t>Needed to asses pt fx</t>
+  </si>
+  <si>
+    <t>Febrile convulsions, epilepsy, infection</t>
+  </si>
+  <si>
+    <t>Febrile seizure, epilepsy</t>
+  </si>
+  <si>
+    <t>looked in the mouth - ent assessment</t>
+  </si>
+  <si>
+    <t>Pneumonia, URTI, croup, pleural effusion</t>
+  </si>
+  <si>
+    <t>Pneumonia, sepsis, exacerbation asthma, URTI</t>
+  </si>
+  <si>
+    <t>4,5,4,3</t>
+  </si>
+  <si>
+    <t>Abdo exam, exposure, ENT</t>
+  </si>
+  <si>
+    <t>Asthma exacerbation, anaphylaxis, sepsis</t>
+  </si>
+  <si>
+    <t>4,2,5</t>
+  </si>
+  <si>
+    <t>Sepsis</t>
+  </si>
+  <si>
+    <t>Viral URTI, bronchiolitis, bacterial infection, sepsis (CNS involvement)</t>
+  </si>
+  <si>
+    <t>4,2,4,4</t>
+  </si>
+  <si>
+    <t>Acute asthma exacerbation, viral URTI, sepsis</t>
+  </si>
+  <si>
+    <t>Febrile convulsion, epilepsy</t>
+  </si>
+  <si>
+    <t>Febrile convulsion, viral URTI, croup, bronchiolitis, VIW</t>
+  </si>
+  <si>
+    <t>5,4,2,1,2</t>
+  </si>
+  <si>
+    <t>Febrile seizure, viral URTI, VIW, bronchiolitis, croup</t>
+  </si>
+  <si>
+    <t>Febrile seizure, epilepsy, infection</t>
+  </si>
+  <si>
+    <t>Febrile convulsion, tonsillitis, epilepsy</t>
+  </si>
+  <si>
+    <t>5,5,1</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>VIW, pneumonia, cold/flu</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>Asthma exacerbation, viral induced wheeze, pneumonia, sepsis</t>
+  </si>
+  <si>
+    <t>5,3,1,2</t>
+  </si>
+  <si>
+    <t>Blood cultures</t>
+  </si>
+  <si>
+    <t>Febrile convulsion, tonic clonic seizure</t>
+  </si>
+  <si>
+    <t>Febrile convulsion, sepsis</t>
+  </si>
+  <si>
+    <t>ENT exam, not sure if it was offered as an option. Infebrile chill, want to check tympanic membrane + throat</t>
+  </si>
+  <si>
+    <t>Febrile convulsion, epilepsy, meningitis, DKA, brain bleed</t>
+  </si>
+  <si>
+    <t>5,2,1,1,1</t>
+  </si>
+  <si>
+    <t>CT head, feraPAIN score, neuro exam</t>
+  </si>
+  <si>
+    <t>Acute exacerbation of asthma, URTI, pneumonia</t>
+  </si>
+  <si>
+    <t>4,2,2</t>
+  </si>
+  <si>
+    <t>Asthma excerbation, LRTI, viral induced wheeze</t>
+  </si>
+  <si>
+    <t>Infectious excerbation of asthma, pneumonia</t>
+  </si>
+  <si>
+    <t>I would like to re-listen to lungs, I would probably not take bloods right now but consider it - IV access too. Sepsis screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19 </t>
+  </si>
+  <si>
+    <t>Febrile convulsions, epilepsy, bronchiolitis, meningitis</t>
+  </si>
+  <si>
+    <t>Asthma exacerbation, viral induced wheeze/infection</t>
+  </si>
+  <si>
+    <t>Pneumonia, sepsis</t>
+  </si>
+  <si>
+    <t>Epilepsy, febrile convulsion</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>Febrile convulsion, epilepsy, CNS infection</t>
+  </si>
+  <si>
+    <t>Febrile convulsions, epilepsy, meningitis, space occupying lesion</t>
+  </si>
+  <si>
+    <t>5,2,1,1</t>
+  </si>
+  <si>
+    <t>Seizure, epilepsy, febrile convulsion</t>
+  </si>
+  <si>
+    <t>Febrile convulsion, epilepsy, seizure</t>
+  </si>
+  <si>
+    <t>Better examination to determine cause of infection</t>
+  </si>
+  <si>
+    <t>Asthma exacerbation, pneumonia, inhaled FB, pneumothorax, DKA</t>
+  </si>
+  <si>
+    <t>Acute asthma exacerbation, viral infection, any infection, pneumonia</t>
+  </si>
+  <si>
+    <t>5,3,2,2</t>
+  </si>
+  <si>
+    <t>Asthma exacerbation, viral infection, chest infection, sepsis</t>
+  </si>
+  <si>
+    <t>5,3,3,4</t>
+  </si>
+  <si>
+    <t>Bronchiolitis, infective exacerbation of asthma, pneumonia with pleural effusion</t>
+  </si>
+  <si>
+    <t>3,4,4</t>
+  </si>
+  <si>
+    <t>Sepsis, Pneumonia/LRTI,, infective excerbation asthma</t>
+  </si>
+  <si>
+    <t>Asthma exacerbation, LRTI, URTI</t>
+  </si>
+  <si>
+    <t>Pneumonia, asthma exacerbation</t>
+  </si>
+  <si>
+    <t>Maybe sputum sample, check cap refill/glucose. Request chest x-ray</t>
+  </si>
+  <si>
+    <t>Febrile convulsion, epilepstic seizure, hypoglycaemia</t>
+  </si>
+  <si>
+    <t>Febrile convulsion, epilepsy, hypoglycaemic seizure, tonsillitis, URTI</t>
+  </si>
+  <si>
+    <t>5,2,1,4,3</t>
+  </si>
+  <si>
+    <t>Febrile convulsions, meningitis, first epilepsy/seizure, tumour</t>
+  </si>
+  <si>
+    <t>Febrile convulsion, epilepsy, enceph/meningitis, brain tumour</t>
+  </si>
+  <si>
+    <t>5,3,2,1</t>
+  </si>
+  <si>
+    <t>Look at tonsils</t>
+  </si>
+  <si>
+    <t>Seizure, hypo, epilepsy, febrile convulsion, NEA, SOL, encephalitis</t>
+  </si>
+  <si>
+    <t>5,3,3,4,2,2,2</t>
+  </si>
+  <si>
+    <t>Pneumonia, asthma exacerbation, foreign body</t>
+  </si>
+  <si>
+    <t>Pneumonia, asthma exacerbation, viral pneumonisis</t>
+  </si>
+  <si>
+    <t>CXR, Sputumblood cultures, viral throat swab and examine throat and ears</t>
+  </si>
+  <si>
+    <t>Febrile Seizure, pneumonitis v/b, RSV (high fever), epilepsy, hypoglycaemic seizure</t>
+  </si>
+  <si>
+    <t>5,4,1,3,1</t>
+  </si>
+  <si>
+    <t>Febrile seizure, URTI, epilepsy</t>
+  </si>
+  <si>
+    <t>5,5,2</t>
+  </si>
+  <si>
+    <t>Ask mum what meds she was given</t>
+  </si>
+  <si>
+    <t>Febrile convulsion, epilepsy, hypoglycaemia</t>
+  </si>
+  <si>
+    <t>Febrile convulsions, epilepsy, hypoglycaemia</t>
   </si>
 </sst>
 </file>
@@ -5956,8 +6194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EABA4C-802B-0C4C-8F07-801F525931A9}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7229,6 +7467,1249 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933E2D08-C90E-8540-BFF4-76A145CE8E5A}">
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>557</v>
+      </c>
+      <c r="I2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>0.35</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>48</v>
+      </c>
+      <c r="O2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>560</v>
+      </c>
+      <c r="I3" t="s">
+        <v>561</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>0.34</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E4" t="s">
+        <v>564</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>565</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E5" t="s">
+        <v>567</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>568</v>
+      </c>
+      <c r="I5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>0.59</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" t="s">
+        <v>569</v>
+      </c>
+      <c r="E6" t="s">
+        <v>511</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>0.51</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B7">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" t="s">
+        <v>570</v>
+      </c>
+      <c r="E7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>572</v>
+      </c>
+      <c r="I7" t="s">
+        <v>422</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>0.85</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B8">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" t="s">
+        <v>573</v>
+      </c>
+      <c r="E8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>574</v>
+      </c>
+      <c r="I8" t="s">
+        <v>575</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" t="s">
+        <v>577</v>
+      </c>
+      <c r="E9" t="s">
+        <v>578</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>579</v>
+      </c>
+      <c r="I9" t="s">
+        <v>580</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>68</v>
+      </c>
+      <c r="O9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" t="s">
+        <v>582</v>
+      </c>
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>583</v>
+      </c>
+      <c r="I10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>0.62</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>59</v>
+      </c>
+      <c r="O10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" t="s">
+        <v>557</v>
+      </c>
+      <c r="E11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>585</v>
+      </c>
+      <c r="I11" t="s">
+        <v>586</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>0.24</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>64</v>
+      </c>
+      <c r="O11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" t="s">
+        <v>588</v>
+      </c>
+      <c r="E12" t="s">
+        <v>589</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" t="s">
+        <v>590</v>
+      </c>
+      <c r="E13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>591</v>
+      </c>
+      <c r="I13" t="s">
+        <v>305</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <v>0.25</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>60</v>
+      </c>
+      <c r="O13" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B14">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" t="s">
+        <v>594</v>
+      </c>
+      <c r="E14" t="s">
+        <v>352</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>478</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" t="s">
+        <v>595</v>
+      </c>
+      <c r="E15" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>596</v>
+      </c>
+      <c r="I15" t="s">
+        <v>270</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>0.38</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>504</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" t="s">
+        <v>597</v>
+      </c>
+      <c r="E16" t="s">
+        <v>598</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>557</v>
+      </c>
+      <c r="I16" t="s">
+        <v>402</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>7</v>
+      </c>
+      <c r="L16">
+        <v>0.79</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>499</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" t="s">
+        <v>599</v>
+      </c>
+      <c r="E17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>600</v>
+      </c>
+      <c r="I17" t="s">
+        <v>601</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17">
+        <v>0.65</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>494</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" t="s">
+        <v>602</v>
+      </c>
+      <c r="E18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>603</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>0.12</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>64</v>
+      </c>
+      <c r="O18" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>518</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" t="s">
+        <v>605</v>
+      </c>
+      <c r="E19" t="s">
+        <v>586</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>509</v>
+      </c>
+      <c r="I19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>0.31</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>466</v>
+      </c>
+      <c r="B20">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" t="s">
+        <v>606</v>
+      </c>
+      <c r="E20" t="s">
+        <v>607</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>608</v>
+      </c>
+      <c r="I20" t="s">
+        <v>609</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>0.13</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>510</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" t="s">
+        <v>610</v>
+      </c>
+      <c r="E21" t="s">
+        <v>611</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>612</v>
+      </c>
+      <c r="I21" t="s">
+        <v>283</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21">
+        <v>0.34</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>526</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" t="s">
+        <v>613</v>
+      </c>
+      <c r="E22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>614</v>
+      </c>
+      <c r="I22" t="s">
+        <v>402</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>8</v>
+      </c>
+      <c r="L22">
+        <v>0.22</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>65</v>
+      </c>
+      <c r="O22" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" t="s">
+        <v>616</v>
+      </c>
+      <c r="E23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>617</v>
+      </c>
+      <c r="I23" t="s">
+        <v>618</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>9</v>
+      </c>
+      <c r="L23">
+        <v>0.81</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E24" t="s">
+        <v>601</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>620</v>
+      </c>
+      <c r="I24" t="s">
+        <v>621</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>0.12</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>547</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D25" t="s">
+        <v>623</v>
+      </c>
+      <c r="E25" t="s">
+        <v>624</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>244</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>529</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" t="s">
+        <v>625</v>
+      </c>
+      <c r="E26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>626</v>
+      </c>
+      <c r="I26" t="s">
+        <v>575</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>7</v>
+      </c>
+      <c r="L26">
+        <v>0.54</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>60</v>
+      </c>
+      <c r="O26" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>537</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" t="s">
+        <v>628</v>
+      </c>
+      <c r="E27" t="s">
+        <v>629</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>630</v>
+      </c>
+      <c r="I27" t="s">
+        <v>631</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <v>0.26</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>70</v>
+      </c>
+      <c r="O27" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>543</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" t="s">
+        <v>633</v>
+      </c>
+      <c r="E28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>634</v>
+      </c>
+      <c r="I28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3969157D-A304-5A43-B6FC-9931AC0FDACA}">
   <dimension ref="A1:AU1"/>
   <sheetViews>
@@ -7425,7 +8906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172C76A7-CFA8-9242-B54B-551ED52784AA}">
   <dimension ref="A1:B59"/>
   <sheetViews>
@@ -7916,7 +9397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B63B75-D5F4-5846-885E-3A85B2A09F26}">
   <dimension ref="A1:B10"/>
   <sheetViews>

--- a/ThesisMainProject/Study4VR/VR Data.xlsx
+++ b/ThesisMainProject/Study4VR/VR Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/ThesisMainProject/ThesisMainProject/Study4VR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srirajaiyer/Documents/GitHub/ThesisMainProject/ThesisMainProject/Study4VR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F886DA77-AC19-894E-B729-F8BB18AE50DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736AA03E-3A29-DE45-9CDE-3E5A3402B425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" activeTab="5" xr2:uid="{825F4B24-3A96-6F43-ABCB-19DC36A55CD5}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{825F4B24-3A96-6F43-ABCB-19DC36A55CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -2312,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0402C19-96DB-6848-8990-E96BAAD3CA36}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3141,46 +3141,43 @@
         <v>207</v>
       </c>
       <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" t="s">
+        <v>500</v>
+      </c>
+      <c r="E18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>501</v>
+      </c>
+      <c r="I18" t="s">
+        <v>270</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <v>0.1</v>
+      </c>
+      <c r="M18">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" t="s">
-        <v>210</v>
-      </c>
-      <c r="E18" t="s">
-        <v>211</v>
-      </c>
-      <c r="F18">
-        <v>7</v>
-      </c>
-      <c r="G18">
-        <v>7</v>
-      </c>
-      <c r="H18" t="s">
-        <v>208</v>
-      </c>
-      <c r="I18" t="s">
-        <v>209</v>
-      </c>
-      <c r="J18">
-        <v>7</v>
-      </c>
-      <c r="K18">
-        <v>7</v>
-      </c>
-      <c r="L18">
-        <v>0.25</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
-        <v>69</v>
-      </c>
-      <c r="O18" t="s">
-        <v>212</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -6194,11 +6191,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EABA4C-802B-0C4C-8F07-801F525931A9}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView zoomScale="50" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="94" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -6818,43 +6818,46 @@
         <v>499</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="E15" t="s">
-        <v>270</v>
+        <v>211</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>501</v>
+        <v>208</v>
       </c>
       <c r="I15" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="J15">
         <v>7</v>
       </c>
       <c r="K15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="O15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -7470,14 +7473,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933E2D08-C90E-8540-BFF4-76A145CE8E5A}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -8910,7 +8913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172C76A7-CFA8-9242-B54B-551ED52784AA}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>

--- a/ThesisMainProject/Study4VR/VR Data.xlsx
+++ b/ThesisMainProject/Study4VR/VR Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srirajaiyer/Documents/GitHub/ThesisMainProject/ThesisMainProject/Study4VR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736AA03E-3A29-DE45-9CDE-3E5A3402B425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A736DFAD-0ABE-9847-9DE8-5FA3C73278EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{825F4B24-3A96-6F43-ABCB-19DC36A55CD5}"/>
+    <workbookView xWindow="13040" yWindow="500" windowWidth="16360" windowHeight="16040" activeTab="5" xr2:uid="{825F4B24-3A96-6F43-ABCB-19DC36A55CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="Data4" sheetId="8" r:id="rId4"/>
     <sheet name="Data5" sheetId="9" r:id="rId5"/>
     <sheet name="Data6" sheetId="10" r:id="rId6"/>
-    <sheet name="OMSObjectives" sheetId="5" r:id="rId7"/>
-    <sheet name="DataDictionary" sheetId="3" r:id="rId8"/>
-    <sheet name="SeverityScale" sheetId="4" r:id="rId9"/>
+    <sheet name="DifferentialMarking" sheetId="11" r:id="rId7"/>
+    <sheet name="OMSObjectives" sheetId="5" r:id="rId8"/>
+    <sheet name="DataDictionary" sheetId="3" r:id="rId9"/>
+    <sheet name="SeverityScale" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="656">
   <si>
     <t>t1Diagnoses</t>
   </si>
@@ -1948,13 +1949,100 @@
   </si>
   <si>
     <t>Febrile convulsions, epilepsy, hypoglycaemia</t>
+  </si>
+  <si>
+    <t>Most Likely Differential</t>
+  </si>
+  <si>
+    <t>Improbable Differentials</t>
+  </si>
+  <si>
+    <t>Asthma / asthma exacerbation</t>
+  </si>
+  <si>
+    <t>Pneumonia / LRTI</t>
+  </si>
+  <si>
+    <t>Pneumonia / LRTI
+RSV / Viral URTI
+Foreign Body
+Anaphylaxis
+Viral Induced Wheeze</t>
+  </si>
+  <si>
+    <t>Epiglotitis
+Croup
+PE</t>
+  </si>
+  <si>
+    <t>Probable/Possible Differentials</t>
+  </si>
+  <si>
+    <t>Alcohol ingestion
+Sickle cell
+Inborn erros of metabolism</t>
+  </si>
+  <si>
+    <t>Febrile Convulsion</t>
+  </si>
+  <si>
+    <t>URTI / cold / flu
+Viral LRTI
+Asthma 
+Inhaled foreign body (FB)</t>
+  </si>
+  <si>
+    <t>Anaphylaxis
+Pleural effusion
+Pneumothorax</t>
+  </si>
+  <si>
+    <t>URTI / throat infection / tonsilitis
+Gastroenteritis / abdominal infection
+Insulin non compliance
+Sepsis
+Viral Infection</t>
+  </si>
+  <si>
+    <t>t1DiagnosisScore</t>
+  </si>
+  <si>
+    <t>Epilepsy
+Meningitis / CNS infection / encephalitis
+Hypo / hypoglyceamia
+Non accidental injury (NEA)
+Space occupying lesion (SOL) / tumor</t>
+  </si>
+  <si>
+    <t>Incorrect</t>
+  </si>
+  <si>
+    <t>e.g. DKA, meningitis</t>
+  </si>
+  <si>
+    <t>e.g. hypo, dehydration</t>
+  </si>
+  <si>
+    <t>e.g. croup, tonic clonic</t>
+  </si>
+  <si>
+    <t>e.g. DKA, croup</t>
+  </si>
+  <si>
+    <t>Cap between 0 and 1</t>
+  </si>
+  <si>
+    <t>Fictitious / malingering
+Alcohol withdrawal
+Sickle cell
+Inborn errors of metabolism</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1965,6 +2053,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1990,12 +2086,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2310,58 +2407,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0402C19-96DB-6848-8990-E96BAAD3CA36}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="B1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2375,40 +2474,43 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -2421,41 +2523,44 @@
       <c r="D2" t="s">
         <v>135</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>0.38</v>
+      </c>
+      <c r="F2" t="s">
         <v>131</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
         <v>136</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4</v>
       </c>
-      <c r="K2">
-        <v>7</v>
-      </c>
       <c r="L2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -2468,41 +2573,44 @@
       <c r="D3" t="s">
         <v>138</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>0.53</v>
+      </c>
+      <c r="F3" t="s">
         <v>139</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>9</v>
       </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
         <v>136</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>9</v>
       </c>
-      <c r="K3">
-        <v>7</v>
-      </c>
       <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
         <v>0.1</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>46</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>151</v>
       </c>
@@ -2515,41 +2623,44 @@
       <c r="D4" t="s">
         <v>145</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>0.85</v>
+      </c>
+      <c r="F4" t="s">
         <v>142</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
       </c>
       <c r="G4">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
         <v>141</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
       <c r="K4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>67</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -2562,41 +2673,44 @@
       <c r="D5" t="s">
         <v>144</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>0.73</v>
+      </c>
+      <c r="F5" t="s">
         <v>146</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>6</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>147</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>130</v>
       </c>
-      <c r="J5">
-        <v>8</v>
-      </c>
       <c r="K5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
         <v>0.19</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>72</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -2609,38 +2723,41 @@
       <c r="D6" t="s">
         <v>154</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>0.54</v>
+      </c>
+      <c r="F6" t="s">
         <v>155</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
         <v>156</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>132</v>
       </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
       <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6">
         <v>6</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.22</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -2653,32 +2770,35 @@
       <c r="D7" t="s">
         <v>158</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>0.75</v>
+      </c>
+      <c r="F7" t="s">
         <v>159</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>160</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>161</v>
       </c>
-      <c r="J7">
-        <v>8</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
+      <c r="K7">
+        <v>8</v>
       </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -2691,41 +2811,44 @@
       <c r="D8" t="s">
         <v>163</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F8" t="s">
         <v>164</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
         <v>165</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>166</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>6</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>9</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.03</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>65</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>168</v>
       </c>
@@ -2738,41 +2861,44 @@
       <c r="D9" t="s">
         <v>169</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>0.85</v>
+      </c>
+      <c r="F9" t="s">
         <v>170</v>
       </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
       <c r="G9">
         <v>7</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
         <v>171</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>172</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>9</v>
       </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
       <c r="L9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>79</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -2785,41 +2911,44 @@
       <c r="D10" t="s">
         <v>136</v>
       </c>
-      <c r="E10" t="s">
-        <v>131</v>
+      <c r="E10">
+        <v>0.45</v>
       </c>
       <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
         <v>9</v>
       </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
         <v>136</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>10</v>
       </c>
-      <c r="K10">
-        <v>7</v>
-      </c>
       <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
         <v>0.03</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>45</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -2832,38 +2961,41 @@
       <c r="D11" t="s">
         <v>177</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>0.71</v>
+      </c>
+      <c r="F11" t="s">
         <v>178</v>
       </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
       <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
         <v>6</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>177</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>179</v>
       </c>
-      <c r="J11">
-        <v>8</v>
-      </c>
       <c r="K11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
         <v>0.16</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -2876,35 +3008,38 @@
       <c r="D12" t="s">
         <v>181</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>0.53</v>
+      </c>
+      <c r="F12" t="s">
         <v>129</v>
       </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
       <c r="G12">
         <v>8</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
         <v>136</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>5</v>
       </c>
-      <c r="J12">
-        <v>8</v>
-      </c>
       <c r="K12">
         <v>8</v>
       </c>
       <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
         <v>0.09</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>182</v>
       </c>
@@ -2917,41 +3052,44 @@
       <c r="D13" t="s">
         <v>183</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F13" t="s">
         <v>184</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>9</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>185</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>186</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>6</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>9</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.12</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>62</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -2964,41 +3102,44 @@
       <c r="D14" t="s">
         <v>189</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <v>0.38</v>
+      </c>
+      <c r="F14" t="s">
         <v>128</v>
       </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
       <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
         <v>9</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>136</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>5</v>
-      </c>
-      <c r="J14">
-        <v>9</v>
       </c>
       <c r="K14">
         <v>9</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>55</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>191</v>
       </c>
@@ -3011,41 +3152,44 @@
       <c r="D15" t="s">
         <v>192</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>0.81</v>
+      </c>
+      <c r="F15" t="s">
         <v>193</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>6</v>
       </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
         <v>194</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>195</v>
       </c>
-      <c r="J15">
-        <v>8</v>
-      </c>
       <c r="K15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
         <v>0.19</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>58</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -3058,38 +3202,41 @@
       <c r="D16" t="s">
         <v>198</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>0.24</v>
+      </c>
+      <c r="F16" t="s">
         <v>199</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>6</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>9</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>200</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>131</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>9</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>6</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.1</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>201</v>
       </c>
@@ -3102,41 +3249,44 @@
       <c r="D17" t="s">
         <v>202</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>0.36</v>
+      </c>
+      <c r="F17" t="s">
         <v>203</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3</v>
       </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
         <v>204</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>205</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>9</v>
       </c>
-      <c r="K17">
-        <v>7</v>
-      </c>
       <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17">
         <v>0.25</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>46</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -3149,38 +3299,41 @@
       <c r="D18" t="s">
         <v>500</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>0.66</v>
+      </c>
+      <c r="F18" t="s">
         <v>270</v>
       </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
       <c r="G18">
         <v>8</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18" t="s">
         <v>501</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>270</v>
       </c>
-      <c r="J18">
-        <v>7</v>
-      </c>
       <c r="K18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18">
         <v>0.1</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -3193,41 +3346,44 @@
       <c r="D19" t="s">
         <v>214</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>0.65</v>
+      </c>
+      <c r="F19" t="s">
         <v>215</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>6</v>
       </c>
-      <c r="G19">
-        <v>7</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
         <v>216</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>217</v>
       </c>
-      <c r="J19">
-        <v>7</v>
-      </c>
       <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="L19">
         <v>6</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.24</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>69</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>219</v>
       </c>
@@ -3240,41 +3396,44 @@
       <c r="D20" t="s">
         <v>220</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>0.69</v>
+      </c>
+      <c r="F20" t="s">
         <v>209</v>
       </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
       <c r="G20">
         <v>7</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s">
         <v>136</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>5</v>
-      </c>
-      <c r="J20">
-        <v>9</v>
       </c>
       <c r="K20">
         <v>9</v>
       </c>
       <c r="L20">
+        <v>9</v>
+      </c>
+      <c r="M20">
         <v>0.13</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>74</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>222</v>
       </c>
@@ -3287,38 +3446,139 @@
       <c r="D21" t="s">
         <v>223</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21">
+        <v>0.71</v>
+      </c>
+      <c r="F21" t="s">
         <v>178</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>6</v>
       </c>
-      <c r="G21">
-        <v>7</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
         <v>136</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>5</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>9</v>
       </c>
-      <c r="K21">
-        <v>8</v>
-      </c>
       <c r="L21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>70</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B63B75-D5F4-5846-885E-3A85B2A09F26}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="51.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3328,15 +3588,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4530E96B-253A-8D47-8AFE-89721727877A}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="B1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3350,40 +3614,43 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -3396,17 +3663,20 @@
       <c r="D2" t="s">
         <v>227</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F2" t="s">
         <v>228</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6</v>
       </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>219</v>
       </c>
@@ -3419,41 +3689,44 @@
       <c r="D3" t="s">
         <v>230</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>0.59</v>
+      </c>
+      <c r="F3" t="s">
         <v>229</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
         <v>231</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>159</v>
       </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
       <c r="K3">
         <v>8</v>
       </c>
       <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
         <v>0.21</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>70</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>233</v>
       </c>
@@ -3467,37 +3740,40 @@
         <v>234</v>
       </c>
       <c r="E4">
+        <v>0.23</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
       <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
         <v>235</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>236</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>6</v>
       </c>
-      <c r="K4">
-        <v>8</v>
-      </c>
       <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
         <v>0.47</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
@@ -3510,38 +3786,41 @@
       <c r="D5" t="s">
         <v>237</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>0.44</v>
+      </c>
+      <c r="F5" t="s">
         <v>238</v>
       </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
       <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
         <v>239</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>240</v>
       </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
       <c r="K5">
         <v>7</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -3554,35 +3833,38 @@
       <c r="D6" t="s">
         <v>242</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>0.73</v>
+      </c>
+      <c r="F6" t="s">
         <v>243</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>244</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
       <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.12</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>188</v>
       </c>
@@ -3595,41 +3877,44 @@
       <c r="D7" t="s">
         <v>245</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>0.37</v>
+      </c>
+      <c r="F7" t="s">
         <v>130</v>
       </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
       <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
         <v>246</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>247</v>
       </c>
-      <c r="J7">
-        <v>8</v>
-      </c>
       <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
         <v>9</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.12</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>51</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>222</v>
       </c>
@@ -3642,38 +3927,41 @@
       <c r="D8" t="s">
         <v>250</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>0.2</v>
+      </c>
+      <c r="F8" t="s">
         <v>251</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
         <v>252</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>131</v>
-      </c>
-      <c r="J8">
-        <v>9</v>
       </c>
       <c r="K8">
         <v>9</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="O8" t="s">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>182</v>
       </c>
@@ -3686,41 +3974,44 @@
       <c r="D9" t="s">
         <v>254</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>0.47</v>
+      </c>
+      <c r="F9" t="s">
         <v>255</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
         <v>256</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>159</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>6</v>
       </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
       <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
         <v>0.18</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>70</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>258</v>
       </c>
@@ -3733,38 +4024,41 @@
       <c r="D10" t="s">
         <v>259</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>0.27</v>
+      </c>
+      <c r="F10" t="s">
         <v>260</v>
       </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
       <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>261</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>236</v>
       </c>
-      <c r="J10">
-        <v>7</v>
-      </c>
       <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
         <v>9</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.18</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -3777,35 +4071,38 @@
       <c r="D11" t="s">
         <v>262</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>0.61</v>
+      </c>
+      <c r="F11" t="s">
         <v>263</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>244</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>5</v>
       </c>
-      <c r="J11">
-        <v>7</v>
-      </c>
       <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
         <v>4</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -3818,38 +4115,41 @@
       <c r="D12" t="s">
         <v>264</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>0.4</v>
+      </c>
+      <c r="F12" t="s">
         <v>265</v>
       </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
       <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
         <v>3</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>266</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>267</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>9</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>3</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.49</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>213</v>
       </c>
@@ -3862,35 +4162,38 @@
       <c r="D13" t="s">
         <v>268</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <v>0.54</v>
+      </c>
+      <c r="F13" t="s">
         <v>209</v>
       </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
       <c r="G13">
         <v>7</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
         <v>269</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>270</v>
-      </c>
-      <c r="J13">
-        <v>9</v>
       </c>
       <c r="K13">
         <v>9</v>
       </c>
       <c r="L13">
+        <v>9</v>
+      </c>
+      <c r="M13">
         <v>0.12</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>191</v>
       </c>
@@ -3903,38 +4206,41 @@
       <c r="D14" t="s">
         <v>271</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <v>0.73</v>
+      </c>
+      <c r="F14" t="s">
         <v>130</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>6</v>
       </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
         <v>271</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>272</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>9</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.35</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>249</v>
       </c>
@@ -3947,41 +4253,44 @@
       <c r="D15" t="s">
         <v>273</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>0.47</v>
+      </c>
+      <c r="F15" t="s">
         <v>274</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>5</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>9</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>275</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>276</v>
       </c>
-      <c r="J15">
-        <v>7</v>
-      </c>
       <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15">
         <v>5</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.1</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>38</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -3994,38 +4303,41 @@
       <c r="D16" t="s">
         <v>281</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>0.25</v>
+      </c>
+      <c r="F16" t="s">
         <v>240</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>5</v>
       </c>
-      <c r="G16">
-        <v>7</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
         <v>278</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>279</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>5</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>9</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.21</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>180</v>
       </c>
@@ -4038,16 +4350,19 @@
       <c r="D17" t="s">
         <v>282</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>0.41</v>
+      </c>
+      <c r="F17" t="s">
         <v>283</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3</v>
       </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-      <c r="N17">
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="O17">
         <v>61</v>
       </c>
     </row>
@@ -4058,15 +4373,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5758A4DC-CF51-844B-9C6D-7B58E23AD1B9}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="95" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4080,40 +4398,43 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>284</v>
       </c>
@@ -4126,38 +4447,41 @@
       <c r="D2" t="s">
         <v>285</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F2" t="s">
         <v>132</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
         <v>285</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>132</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="K2">
-        <v>7</v>
-      </c>
       <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
         <v>0.65</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>286</v>
       </c>
@@ -4170,41 +4494,44 @@
       <c r="D3" t="s">
         <v>287</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>0.54</v>
+      </c>
+      <c r="F3" t="s">
         <v>209</v>
       </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
       <c r="G3">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
         <v>136</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
       <c r="K3">
         <v>8</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>53</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -4217,41 +4544,44 @@
       <c r="D4" t="s">
         <v>290</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>0.4</v>
+      </c>
+      <c r="F4" t="s">
         <v>292</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>9</v>
       </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
         <v>290</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>291</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>10</v>
       </c>
-      <c r="K4">
-        <v>7</v>
-      </c>
       <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>42</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -4264,41 +4594,44 @@
       <c r="D5" t="s">
         <v>295</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>0.76</v>
+      </c>
+      <c r="F5" t="s">
         <v>296</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>6</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>297</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>298</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>9</v>
       </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
       <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
         <v>0.21</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>72</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>300</v>
       </c>
@@ -4311,38 +4644,41 @@
       <c r="D6" t="s">
         <v>301</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>0.38</v>
+      </c>
+      <c r="F6" t="s">
         <v>131</v>
       </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
       <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>301</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>131</v>
       </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
       <c r="K6">
         <v>8</v>
       </c>
       <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
         <v>0.38</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>302</v>
       </c>
@@ -4355,38 +4691,41 @@
       <c r="D7" t="s">
         <v>304</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>0.64</v>
+      </c>
+      <c r="F7" t="s">
         <v>305</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
         <v>303</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>128</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>9</v>
       </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
       <c r="L7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>1</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -4399,41 +4738,44 @@
       <c r="D8" t="s">
         <v>316</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>0.84</v>
+      </c>
+      <c r="F8" t="s">
         <v>307</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>9</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>316</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>308</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>10</v>
       </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
       <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
         <v>0.71</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>68</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>310</v>
       </c>
@@ -4446,20 +4788,23 @@
       <c r="D9" t="s">
         <v>311</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>0.79</v>
+      </c>
+      <c r="F9" t="s">
         <v>205</v>
       </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
       <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>312</v>
       </c>
@@ -4472,38 +4817,41 @@
       <c r="D10" t="s">
         <v>315</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>0.47</v>
+      </c>
+      <c r="F10" t="s">
         <v>313</v>
       </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
       <c r="G10">
         <v>7</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
         <v>314</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>260</v>
       </c>
-      <c r="J10">
-        <v>7</v>
-      </c>
       <c r="K10">
         <v>7</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>1</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>317</v>
       </c>
@@ -4516,38 +4864,41 @@
       <c r="D11" t="s">
         <v>318</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>0.38</v>
+      </c>
+      <c r="F11" t="s">
         <v>131</v>
       </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
       <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
         <v>6</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>318</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>128</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>9</v>
       </c>
-      <c r="K11">
-        <v>7</v>
-      </c>
       <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
         <v>0.5</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>319</v>
       </c>
@@ -4560,38 +4911,41 @@
       <c r="D12" t="s">
         <v>320</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>0.73</v>
+      </c>
+      <c r="F12" t="s">
         <v>129</v>
       </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
       <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
         <v>321</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>272</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>10</v>
       </c>
-      <c r="K12">
-        <v>7</v>
-      </c>
       <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
         <v>0.09</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>322</v>
       </c>
@@ -4605,37 +4959,40 @@
         <v>136</v>
       </c>
       <c r="E13">
+        <v>0.45</v>
+      </c>
+      <c r="F13">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>9</v>
       </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
         <v>136</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>5</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>10</v>
       </c>
-      <c r="K13">
-        <v>8</v>
-      </c>
       <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>323</v>
       </c>
@@ -4648,41 +5005,44 @@
       <c r="D14" t="s">
         <v>324</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <v>0.36</v>
+      </c>
+      <c r="F14" t="s">
         <v>205</v>
       </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
       <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
         <v>6</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>136</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>5</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>10</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>6</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>51</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>326</v>
       </c>
@@ -4695,41 +5055,44 @@
       <c r="D15" t="s">
         <v>327</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F15" t="s">
         <v>283</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
       </c>
       <c r="G15">
         <v>6</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
         <v>318</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>270</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>10</v>
       </c>
-      <c r="K15">
-        <v>7</v>
-      </c>
       <c r="L15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>51</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>329</v>
       </c>
@@ -4742,38 +5105,41 @@
       <c r="D16" t="s">
         <v>330</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>0.69</v>
+      </c>
+      <c r="F16" t="s">
         <v>331</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>6</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>332</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>129</v>
       </c>
-      <c r="J16">
-        <v>8</v>
-      </c>
       <c r="K16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
         <v>0.65</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>333</v>
       </c>
@@ -4786,41 +5152,44 @@
       <c r="D17" t="s">
         <v>334</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>0.8</v>
+      </c>
+      <c r="F17" t="s">
         <v>335</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
         <v>336</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>337</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>6</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>9</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.06</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>74</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>339</v>
       </c>
@@ -4833,41 +5202,44 @@
       <c r="D18" t="s">
         <v>340</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>0.69</v>
+      </c>
+      <c r="F18" t="s">
         <v>341</v>
       </c>
-      <c r="F18">
-        <v>7</v>
-      </c>
       <c r="G18">
         <v>7</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
         <v>342</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>343</v>
       </c>
-      <c r="J18">
-        <v>8</v>
-      </c>
       <c r="K18">
+        <v>8</v>
+      </c>
+      <c r="L18">
         <v>5</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.13</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>61</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>345</v>
       </c>
@@ -4880,38 +5252,41 @@
       <c r="D19" t="s">
         <v>346</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>0.68</v>
+      </c>
+      <c r="F19" t="s">
         <v>347</v>
       </c>
-      <c r="F19">
-        <v>7</v>
-      </c>
       <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
         <v>5</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>348</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>349</v>
       </c>
-      <c r="J19">
-        <v>8</v>
-      </c>
       <c r="K19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
         <v>0.18</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>350</v>
       </c>
@@ -4924,38 +5299,41 @@
       <c r="D20" t="s">
         <v>351</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>0.62</v>
+      </c>
+      <c r="F20" t="s">
         <v>352</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
         <v>353</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>354</v>
-      </c>
-      <c r="J20">
-        <v>6</v>
       </c>
       <c r="K20">
         <v>6</v>
       </c>
       <c r="L20">
+        <v>6</v>
+      </c>
+      <c r="M20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>355</v>
       </c>
@@ -4968,41 +5346,44 @@
       <c r="D21" t="s">
         <v>356</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21">
+        <v>0.47</v>
+      </c>
+      <c r="F21" t="s">
         <v>357</v>
       </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
       <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
         <v>3</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>358</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>178</v>
       </c>
-      <c r="J21">
-        <v>8</v>
-      </c>
       <c r="K21">
+        <v>8</v>
+      </c>
+      <c r="L21">
         <v>9</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>69</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>360</v>
       </c>
@@ -5015,41 +5396,44 @@
       <c r="D22" t="s">
         <v>361</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22">
+        <v>0.8</v>
+      </c>
+      <c r="F22" t="s">
         <v>362</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>6</v>
       </c>
-      <c r="G22">
-        <v>7</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
         <v>363</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>364</v>
       </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
       <c r="K22">
         <v>7</v>
       </c>
       <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22">
         <v>0.25</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
       <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>68</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>366</v>
       </c>
@@ -5062,38 +5446,41 @@
       <c r="D23" t="s">
         <v>367</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F23" t="s">
         <v>368</v>
       </c>
-      <c r="F23">
-        <v>7</v>
-      </c>
       <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
         <v>6</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>369</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>203</v>
       </c>
-      <c r="J23">
-        <v>7</v>
-      </c>
       <c r="K23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L23">
+        <v>8</v>
+      </c>
+      <c r="M23">
         <v>0.16</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>370</v>
       </c>
@@ -5106,37 +5493,40 @@
       <c r="D24" t="s">
         <v>371</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24">
+        <v>0.44</v>
+      </c>
+      <c r="F24" t="s">
         <v>372</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>5</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>3</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>373</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>298</v>
       </c>
-      <c r="J24">
-        <v>7</v>
-      </c>
       <c r="K24">
         <v>7</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>67</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>374</v>
       </c>
     </row>
@@ -5147,15 +5537,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0334EBD-AF69-AA46-B291-911330352AF6}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -5169,40 +5563,43 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>375</v>
       </c>
@@ -5215,41 +5612,44 @@
       <c r="D2" t="s">
         <v>376</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>0.59</v>
+      </c>
+      <c r="F2" t="s">
         <v>377</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>378</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>379</v>
       </c>
-      <c r="J2">
-        <v>8</v>
-      </c>
       <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.68</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>74</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>310</v>
       </c>
@@ -5262,38 +5662,41 @@
       <c r="D3" t="s">
         <v>381</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>0.62</v>
+      </c>
+      <c r="F3" t="s">
         <v>131</v>
       </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
       <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>382</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>129</v>
       </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
       <c r="K3">
         <v>8</v>
       </c>
       <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
         <v>0.18</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -5306,38 +5709,41 @@
       <c r="D4" t="s">
         <v>383</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>0.36</v>
+      </c>
+      <c r="F4" t="s">
         <v>166</v>
       </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
       <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>384</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>270</v>
       </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
       <c r="K4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
         <v>0.24</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>306</v>
       </c>
@@ -5350,38 +5756,41 @@
       <c r="D5" t="s">
         <v>385</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>0.61</v>
+      </c>
+      <c r="F5" t="s">
         <v>386</v>
       </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
       <c r="G5">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
         <v>387</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>388</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
       <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
         <v>0.79</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>286</v>
       </c>
@@ -5394,41 +5803,44 @@
       <c r="D6" t="s">
         <v>389</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>0.54</v>
+      </c>
+      <c r="F6" t="s">
         <v>390</v>
       </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
       <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>391</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>298</v>
       </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
       <c r="K6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>71</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>289</v>
       </c>
@@ -5441,41 +5853,44 @@
       <c r="D7" t="s">
         <v>393</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>0.68</v>
+      </c>
+      <c r="F7" t="s">
         <v>394</v>
       </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
       <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>395</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>396</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>9</v>
       </c>
-      <c r="K7">
-        <v>8</v>
-      </c>
       <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
         <v>0.09</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>67</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>284</v>
       </c>
@@ -5488,41 +5903,44 @@
       <c r="D8" t="s">
         <v>398</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>0.71</v>
+      </c>
+      <c r="F8" t="s">
         <v>399</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
         <v>400</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>270</v>
       </c>
-      <c r="J8">
-        <v>8</v>
-      </c>
       <c r="K8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>72</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>350</v>
       </c>
@@ -5535,35 +5953,38 @@
       <c r="D9" t="s">
         <v>381</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F9" t="s">
         <v>402</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>6</v>
       </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
         <v>381</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>128</v>
       </c>
-      <c r="J9">
-        <v>7</v>
-      </c>
       <c r="K9">
         <v>7</v>
       </c>
       <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>300</v>
       </c>
@@ -5576,38 +5997,41 @@
       <c r="D10" t="s">
         <v>403</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>0.46</v>
+      </c>
+      <c r="F10" t="s">
         <v>155</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
         <v>404</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>131</v>
       </c>
-      <c r="J10">
-        <v>8</v>
-      </c>
       <c r="K10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
         <v>0.16</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>302</v>
       </c>
@@ -5620,38 +6044,41 @@
       <c r="D11" t="s">
         <v>405</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F11" t="s">
         <v>406</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
         <v>407</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>205</v>
       </c>
-      <c r="J11">
-        <v>8</v>
-      </c>
       <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
         <v>6</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.15</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>319</v>
       </c>
@@ -5664,41 +6091,44 @@
       <c r="D12" t="s">
         <v>409</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F12" t="s">
         <v>410</v>
       </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
       <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
         <v>6</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>411</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>412</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>9</v>
       </c>
-      <c r="K12">
-        <v>7</v>
-      </c>
       <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
         <v>0.91</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>50</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>355</v>
       </c>
@@ -5709,37 +6139,40 @@
         <v>241</v>
       </c>
       <c r="D13" t="s">
-        <v>415</v>
-      </c>
-      <c r="E13" t="s">
-        <v>298</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
+        <v>447</v>
+      </c>
+      <c r="E13">
+        <v>0.39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>448</v>
       </c>
       <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
         <v>4</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>414</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>270</v>
       </c>
-      <c r="J13">
-        <v>8</v>
-      </c>
       <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13">
         <v>3</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.71</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>326</v>
       </c>
@@ -5753,34 +6186,37 @@
         <v>416</v>
       </c>
       <c r="E14">
+        <v>0.45</v>
+      </c>
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
       <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14" t="s">
         <v>417</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>5</v>
       </c>
-      <c r="J14">
-        <v>8</v>
-      </c>
       <c r="K14">
+        <v>8</v>
+      </c>
+      <c r="L14">
         <v>9</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.15</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>418</v>
       </c>
@@ -5793,35 +6229,38 @@
       <c r="D15" t="s">
         <v>419</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>0.15</v>
+      </c>
+      <c r="F15" t="s">
         <v>420</v>
       </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
       <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
         <v>421</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>422</v>
       </c>
-      <c r="J15">
-        <v>8</v>
-      </c>
       <c r="K15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
         <v>0.25</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>370</v>
       </c>
@@ -5835,37 +6274,40 @@
         <v>423</v>
       </c>
       <c r="E16">
+        <v>0.62</v>
+      </c>
+      <c r="F16">
         <v>4</v>
       </c>
-      <c r="F16">
-        <v>7</v>
-      </c>
       <c r="G16">
         <v>7</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
         <v>424</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>425</v>
       </c>
-      <c r="J16">
-        <v>8</v>
-      </c>
       <c r="K16">
+        <v>8</v>
+      </c>
+      <c r="L16">
         <v>3</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.09</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>427</v>
       </c>
@@ -5878,38 +6320,41 @@
       <c r="D17" t="s">
         <v>428</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>0.3</v>
+      </c>
+      <c r="F17" t="s">
         <v>429</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>6</v>
       </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
         <v>430</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>298</v>
-      </c>
-      <c r="J17">
-        <v>9</v>
       </c>
       <c r="K17">
         <v>9</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="O17" t="s">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>322</v>
       </c>
@@ -5922,38 +6367,41 @@
       <c r="D18" t="s">
         <v>432</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F18" t="s">
         <v>132</v>
       </c>
-      <c r="F18">
-        <v>7</v>
-      </c>
       <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
         <v>6</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>433</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>5</v>
-      </c>
-      <c r="J18">
-        <v>9</v>
       </c>
       <c r="K18">
         <v>9</v>
       </c>
       <c r="L18">
+        <v>9</v>
+      </c>
+      <c r="M18">
         <v>0.22</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>418</v>
       </c>
@@ -5966,38 +6414,41 @@
       <c r="D19" t="s">
         <v>434</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+      <c r="F19" t="s">
         <v>435</v>
-      </c>
-      <c r="F19">
-        <v>6</v>
       </c>
       <c r="G19">
         <v>6</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
         <v>436</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>437</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>10</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>6</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.63</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>312</v>
       </c>
@@ -6010,38 +6461,41 @@
       <c r="D20" t="s">
         <v>438</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>0.81</v>
+      </c>
+      <c r="F20" t="s">
         <v>439</v>
-      </c>
-      <c r="F20">
-        <v>6</v>
       </c>
       <c r="G20">
         <v>6</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
         <v>440</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>298</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>9</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>3</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>441</v>
       </c>
@@ -6054,41 +6508,44 @@
       <c r="D21" t="s">
         <v>442</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F21" t="s">
         <v>443</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>9</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>3</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>444</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>445</v>
-      </c>
-      <c r="J21">
-        <v>9</v>
       </c>
       <c r="K21">
         <v>9</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>61</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>323</v>
       </c>
@@ -6099,43 +6556,46 @@
         <v>226</v>
       </c>
       <c r="D22" t="s">
-        <v>447</v>
-      </c>
-      <c r="E22" t="s">
-        <v>448</v>
-      </c>
-      <c r="F22">
+        <v>415</v>
+      </c>
+      <c r="E22">
+        <v>0.64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>298</v>
+      </c>
+      <c r="G22">
         <v>6</v>
       </c>
-      <c r="G22">
-        <v>7</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
         <v>449</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>450</v>
       </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
       <c r="K22">
         <v>7</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>47</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>329</v>
       </c>
@@ -6148,37 +6608,40 @@
       <c r="D23" t="s">
         <v>452</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F23" t="s">
         <v>453</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>4</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>9</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>454</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>455</v>
       </c>
-      <c r="J23">
-        <v>8</v>
-      </c>
       <c r="K23">
+        <v>8</v>
+      </c>
+      <c r="L23">
         <v>6</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.51</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>77</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>456</v>
       </c>
     </row>
@@ -6189,18 +6652,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EABA4C-802B-0C4C-8F07-801F525931A9}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="94" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="98.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -6214,40 +6679,43 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>457</v>
       </c>
@@ -6260,38 +6728,41 @@
       <c r="D2" t="s">
         <v>458</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>0.73</v>
+      </c>
+      <c r="F2" t="s">
         <v>130</v>
       </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
       <c r="G2">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>136</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>459</v>
       </c>
@@ -6304,41 +6775,44 @@
       <c r="D3" t="s">
         <v>460</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>0.62</v>
+      </c>
+      <c r="F3" t="s">
         <v>131</v>
       </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
       <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>461</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>203</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>9</v>
       </c>
-      <c r="K3">
-        <v>8</v>
-      </c>
       <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
         <v>0.15</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>60</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>463</v>
       </c>
@@ -6351,41 +6825,44 @@
       <c r="D4" t="s">
         <v>464</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>0.45</v>
+      </c>
+      <c r="F4" t="s">
         <v>402</v>
       </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
       <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
         <v>136</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
       <c r="K4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
         <v>0.21</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>62</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>466</v>
       </c>
@@ -6398,41 +6875,44 @@
       <c r="D5" t="s">
         <v>301</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>0.33</v>
+      </c>
+      <c r="F5" t="s">
         <v>270</v>
       </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
       <c r="G5">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
         <v>136</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>9</v>
       </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
       <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
         <v>0.15</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>52</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>468</v>
       </c>
@@ -6445,38 +6925,41 @@
       <c r="D6" t="s">
         <v>469</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>0.81</v>
+      </c>
+      <c r="F6" t="s">
         <v>470</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
         <v>471</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>298</v>
       </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
       <c r="K6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>472</v>
       </c>
@@ -6489,38 +6972,41 @@
       <c r="D7" t="s">
         <v>473</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F7" t="s">
         <v>425</v>
       </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
       <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>474</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>9</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.94</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>475</v>
       </c>
@@ -6533,41 +7019,44 @@
       <c r="D8" t="s">
         <v>476</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F8" t="s">
         <v>425</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>141</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>9</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>4</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.41</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>71</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>478</v>
       </c>
@@ -6580,20 +7069,23 @@
       <c r="D9" t="s">
         <v>318</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>0.36</v>
+      </c>
+      <c r="F9" t="s">
         <v>298</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>136</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>5</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>479</v>
       </c>
@@ -6606,38 +7098,41 @@
       <c r="D10" t="s">
         <v>480</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>0.53</v>
+      </c>
+      <c r="F10" t="s">
         <v>481</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>5</v>
       </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
         <v>483</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>131</v>
       </c>
-      <c r="J10">
-        <v>8</v>
-      </c>
       <c r="K10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
         <v>0.81</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>484</v>
       </c>
@@ -6650,38 +7145,41 @@
       <c r="D11" t="s">
         <v>550</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>0.53</v>
+      </c>
+      <c r="F11" t="s">
         <v>129</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>6</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>482</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>5</v>
       </c>
-      <c r="J11">
-        <v>8</v>
-      </c>
       <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
         <v>4</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.63</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>485</v>
       </c>
@@ -6694,38 +7192,41 @@
       <c r="D12" t="s">
         <v>551</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>0.72</v>
+      </c>
+      <c r="F12" t="s">
         <v>486</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>6</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>487</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>5</v>
       </c>
-      <c r="J12">
-        <v>7</v>
-      </c>
       <c r="K12">
         <v>7</v>
       </c>
       <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
         <v>0.65</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>488</v>
       </c>
@@ -6738,41 +7239,44 @@
       <c r="D13" t="s">
         <v>489</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F13" t="s">
         <v>490</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>5</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>491</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>492</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>9</v>
       </c>
-      <c r="K13">
-        <v>7</v>
-      </c>
       <c r="L13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>78</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>494</v>
       </c>
@@ -6785,35 +7289,38 @@
       <c r="D14" t="s">
         <v>495</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <v>0.6</v>
+      </c>
+      <c r="F14" t="s">
         <v>496</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>6</v>
       </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
         <v>497</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>498</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>9</v>
       </c>
-      <c r="K14">
-        <v>7</v>
-      </c>
-      <c r="M14">
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="N14">
         <v>1</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>499</v>
       </c>
@@ -6826,41 +7333,44 @@
       <c r="D15" t="s">
         <v>210</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>0.38</v>
+      </c>
+      <c r="F15" t="s">
         <v>211</v>
       </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
       <c r="G15">
         <v>7</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
         <v>208</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>209</v>
       </c>
-      <c r="J15">
-        <v>7</v>
-      </c>
       <c r="K15">
         <v>7</v>
       </c>
       <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
         <v>0.25</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>69</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>502</v>
       </c>
@@ -6873,38 +7383,41 @@
       <c r="D16" t="s">
         <v>503</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>0.62</v>
+      </c>
+      <c r="F16" t="s">
         <v>131</v>
       </c>
-      <c r="F16">
-        <v>7</v>
-      </c>
       <c r="G16">
         <v>7</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
         <v>136</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>5</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>9</v>
       </c>
-      <c r="K16">
-        <v>8</v>
-      </c>
       <c r="L16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>504</v>
       </c>
@@ -6917,35 +7430,38 @@
       <c r="D17" t="s">
         <v>505</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>0.39</v>
+      </c>
+      <c r="F17" t="s">
         <v>166</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>5</v>
       </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
         <v>506</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>298</v>
       </c>
-      <c r="J17">
-        <v>8</v>
-      </c>
       <c r="K17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17">
         <v>0.03</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>507</v>
       </c>
@@ -6958,38 +7474,41 @@
       <c r="D18" t="s">
         <v>508</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>0.81</v>
+      </c>
+      <c r="F18" t="s">
         <v>211</v>
       </c>
-      <c r="F18">
-        <v>7</v>
-      </c>
       <c r="G18">
         <v>7</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
         <v>509</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>131</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>9</v>
       </c>
-      <c r="K18">
-        <v>8</v>
-      </c>
       <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18">
         <v>0.72</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>510</v>
       </c>
@@ -7002,41 +7521,44 @@
       <c r="D19" t="s">
         <v>318</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>0.33</v>
+      </c>
+      <c r="F19" t="s">
         <v>511</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>5</v>
       </c>
-      <c r="G19">
-        <v>7</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
         <v>512</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>5</v>
       </c>
-      <c r="J19">
-        <v>8</v>
-      </c>
       <c r="K19">
         <v>8</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>56</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>514</v>
       </c>
@@ -7049,35 +7571,38 @@
       <c r="D20" t="s">
         <v>515</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>0.82</v>
+      </c>
+      <c r="F20" t="s">
         <v>516</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>5</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>4</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>517</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>492</v>
       </c>
-      <c r="J20">
-        <v>8</v>
-      </c>
       <c r="K20">
+        <v>8</v>
+      </c>
+      <c r="L20">
         <v>3</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.22</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>518</v>
       </c>
@@ -7090,38 +7615,41 @@
       <c r="D21" t="s">
         <v>519</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21">
+        <v>0.41</v>
+      </c>
+      <c r="F21" t="s">
         <v>520</v>
-      </c>
-      <c r="F21">
-        <v>6</v>
       </c>
       <c r="G21">
         <v>6</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
         <v>521</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>128</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>9</v>
       </c>
-      <c r="K21">
-        <v>7</v>
-      </c>
       <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21">
         <v>0.03</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>522</v>
       </c>
@@ -7134,38 +7662,41 @@
       <c r="D22" t="s">
         <v>548</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22">
+        <v>0.77</v>
+      </c>
+      <c r="F22" t="s">
         <v>523</v>
       </c>
-      <c r="F22">
-        <v>8</v>
-      </c>
       <c r="G22">
-        <v>7</v>
-      </c>
-      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
         <v>524</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>525</v>
       </c>
-      <c r="J22">
-        <v>8</v>
-      </c>
       <c r="K22">
+        <v>8</v>
+      </c>
+      <c r="L22">
         <v>6</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.71</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>526</v>
       </c>
@@ -7178,38 +7709,41 @@
       <c r="D23" t="s">
         <v>527</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <v>0.71</v>
+      </c>
+      <c r="F23" t="s">
         <v>528</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>6</v>
       </c>
-      <c r="G23">
-        <v>8</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23" t="s">
         <v>136</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>5</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>9</v>
       </c>
-      <c r="K23">
-        <v>8</v>
-      </c>
       <c r="L23">
+        <v>8</v>
+      </c>
+      <c r="M23">
         <v>0.13</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>529</v>
       </c>
@@ -7222,41 +7756,44 @@
       <c r="D24" t="s">
         <v>501</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24">
+        <v>0.67</v>
+      </c>
+      <c r="F24" t="s">
         <v>270</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>10</v>
       </c>
-      <c r="G24">
-        <v>8</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
         <v>501</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>270</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>10</v>
       </c>
-      <c r="K24">
-        <v>8</v>
-      </c>
       <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24">
         <v>0.18</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>46</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>531</v>
       </c>
@@ -7269,38 +7806,41 @@
       <c r="D25" t="s">
         <v>532</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25">
+        <v>0.73</v>
+      </c>
+      <c r="F25" t="s">
         <v>533</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
       </c>
       <c r="G25">
         <v>6</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
         <v>534</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>535</v>
       </c>
-      <c r="J25">
-        <v>7</v>
-      </c>
       <c r="K25">
         <v>7</v>
       </c>
       <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
         <v>0.09</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>537</v>
       </c>
@@ -7313,17 +7853,20 @@
       <c r="D26" t="s">
         <v>538</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>0.47</v>
+      </c>
+      <c r="F26" t="s">
         <v>539</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2</v>
       </c>
-      <c r="G26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>540</v>
       </c>
@@ -7336,41 +7879,44 @@
       <c r="D27" t="s">
         <v>541</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+      <c r="F27" t="s">
         <v>337</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>6</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>5</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>141</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>5</v>
       </c>
-      <c r="J27">
-        <v>7</v>
-      </c>
       <c r="K27">
+        <v>7</v>
+      </c>
+      <c r="L27">
         <v>2</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.62</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
       <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>54</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>543</v>
       </c>
@@ -7383,41 +7929,44 @@
       <c r="D28" t="s">
         <v>549</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28">
+        <v>0.46</v>
+      </c>
+      <c r="F28" t="s">
         <v>155</v>
-      </c>
-      <c r="F28">
-        <v>5</v>
       </c>
       <c r="G28">
         <v>5</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
         <v>544</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>545</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>5</v>
       </c>
-      <c r="K28">
-        <v>8</v>
-      </c>
       <c r="L28">
+        <v>8</v>
+      </c>
+      <c r="M28">
         <v>0.31</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
       <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>76</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>547</v>
       </c>
@@ -7430,37 +7979,40 @@
       <c r="D29" t="s">
         <v>552</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29">
+        <v>0.71</v>
+      </c>
+      <c r="F29" t="s">
         <v>553</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>6</v>
       </c>
-      <c r="G29">
-        <v>7</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="H29">
+        <v>7</v>
+      </c>
+      <c r="I29" t="s">
         <v>554</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>209</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>9</v>
       </c>
-      <c r="K29">
-        <v>7</v>
-      </c>
       <c r="L29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>64</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>555</v>
       </c>
     </row>
@@ -7471,26 +8023,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933E2D08-C90E-8540-BFF4-76A145CE8E5A}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -7504,40 +8057,43 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>531</v>
       </c>
@@ -7550,41 +8106,44 @@
       <c r="D2" t="s">
         <v>556</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>0.43</v>
+      </c>
+      <c r="F2" t="s">
         <v>228</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
         <v>557</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>402</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>6</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.35</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>48</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>502</v>
       </c>
@@ -7597,41 +8156,44 @@
       <c r="D3" t="s">
         <v>559</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>0.53</v>
+      </c>
+      <c r="F3" t="s">
         <v>279</v>
       </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
       <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>560</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>561</v>
       </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
       <c r="K3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
         <v>0.34</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>55</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>463</v>
       </c>
@@ -7644,38 +8206,41 @@
       <c r="D4" t="s">
         <v>563</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>0.4</v>
+      </c>
+      <c r="F4" t="s">
         <v>564</v>
       </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
       <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
         <v>565</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
       <c r="K4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>472</v>
       </c>
@@ -7688,38 +8253,41 @@
       <c r="D5" t="s">
         <v>566</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>0.24</v>
+      </c>
+      <c r="F5" t="s">
         <v>567</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>568</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>130</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>9</v>
       </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
       <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
         <v>0.59</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>475</v>
       </c>
@@ -7732,38 +8300,41 @@
       <c r="D6" t="s">
         <v>569</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F6" t="s">
         <v>511</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>244</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>7</v>
-      </c>
       <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.51</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>479</v>
       </c>
@@ -7776,38 +8347,41 @@
       <c r="D7" t="s">
         <v>570</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F7" t="s">
         <v>571</v>
       </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
       <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>572</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>422</v>
       </c>
-      <c r="J7">
-        <v>7</v>
-      </c>
       <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
         <v>5</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.85</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>484</v>
       </c>
@@ -7820,38 +8394,41 @@
       <c r="D8" t="s">
         <v>573</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>0.4</v>
+      </c>
+      <c r="F8" t="s">
         <v>564</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>574</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>575</v>
       </c>
-      <c r="J8">
-        <v>8</v>
-      </c>
       <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>576</v>
       </c>
@@ -7864,41 +8441,44 @@
       <c r="D9" t="s">
         <v>577</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>0.54</v>
+      </c>
+      <c r="F9" t="s">
         <v>578</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
         <v>579</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>580</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>4</v>
       </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
       <c r="L9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>68</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>540</v>
       </c>
@@ -7911,41 +8491,44 @@
       <c r="D10" t="s">
         <v>582</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>0.38</v>
+      </c>
+      <c r="F10" t="s">
         <v>131</v>
       </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
       <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>583</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>128</v>
       </c>
-      <c r="J10">
-        <v>7</v>
-      </c>
       <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
         <v>9</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.62</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>59</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>485</v>
       </c>
@@ -7958,41 +8541,44 @@
       <c r="D11" t="s">
         <v>557</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>0.64</v>
+      </c>
+      <c r="F11" t="s">
         <v>298</v>
       </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
       <c r="G11">
         <v>8</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
         <v>585</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>586</v>
       </c>
-      <c r="J11">
-        <v>8</v>
-      </c>
       <c r="K11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
         <v>0.24</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>64</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>457</v>
       </c>
@@ -8005,17 +8591,20 @@
       <c r="D12" t="s">
         <v>588</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>0.67</v>
+      </c>
+      <c r="F12" t="s">
         <v>589</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>459</v>
       </c>
@@ -8028,41 +8617,44 @@
       <c r="D13" t="s">
         <v>590</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F13" t="s">
         <v>178</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="G13">
-        <v>7</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
         <v>591</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>305</v>
       </c>
-      <c r="J13">
-        <v>7</v>
-      </c>
       <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="L13">
         <v>6</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.25</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>60</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>593</v>
       </c>
@@ -8075,17 +8667,20 @@
       <c r="D14" t="s">
         <v>594</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <v>0.69</v>
+      </c>
+      <c r="F14" t="s">
         <v>352</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>478</v>
       </c>
@@ -8098,38 +8693,41 @@
       <c r="D15" t="s">
         <v>595</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>0.18</v>
+      </c>
+      <c r="F15" t="s">
         <v>298</v>
       </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
       <c r="G15">
         <v>7</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
         <v>596</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>270</v>
       </c>
-      <c r="J15">
-        <v>7</v>
-      </c>
       <c r="K15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
         <v>0.38</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>504</v>
       </c>
@@ -8142,35 +8740,38 @@
       <c r="D16" t="s">
         <v>597</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16" t="s">
         <v>598</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2</v>
       </c>
-      <c r="G16">
-        <v>8</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
         <v>557</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>402</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>10</v>
       </c>
-      <c r="K16">
-        <v>7</v>
-      </c>
       <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
         <v>0.79</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>499</v>
       </c>
@@ -8183,38 +8784,41 @@
       <c r="D17" t="s">
         <v>599</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>0.73</v>
+      </c>
+      <c r="F17" t="s">
         <v>129</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>6</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>5</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>600</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>601</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>9</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>6</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.65</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>494</v>
       </c>
@@ -8227,41 +8831,44 @@
       <c r="D18" t="s">
         <v>602</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>0.73</v>
+      </c>
+      <c r="F18" t="s">
         <v>129</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>9</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>603</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>179</v>
       </c>
-      <c r="J18">
-        <v>8</v>
-      </c>
       <c r="K18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18">
         <v>0.12</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>64</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>518</v>
       </c>
@@ -8274,38 +8881,41 @@
       <c r="D19" t="s">
         <v>605</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>0.71</v>
+      </c>
+      <c r="F19" t="s">
         <v>586</v>
       </c>
-      <c r="F19">
-        <v>8</v>
-      </c>
       <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
         <v>3</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>509</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>131</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>9</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.31</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>466</v>
       </c>
@@ -8318,38 +8928,41 @@
       <c r="D20" t="s">
         <v>606</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>0.67</v>
+      </c>
+      <c r="F20" t="s">
         <v>607</v>
       </c>
-      <c r="F20">
-        <v>8</v>
-      </c>
       <c r="G20">
-        <v>7</v>
-      </c>
-      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s">
         <v>608</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>609</v>
       </c>
-      <c r="J20">
-        <v>7</v>
-      </c>
       <c r="K20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
         <v>0.13</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>510</v>
       </c>
@@ -8362,38 +8975,41 @@
       <c r="D21" t="s">
         <v>610</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21">
+        <v>0.67</v>
+      </c>
+      <c r="F21" t="s">
         <v>611</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>6</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>5</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>612</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>283</v>
       </c>
-      <c r="J21">
-        <v>7</v>
-      </c>
       <c r="K21">
         <v>7</v>
       </c>
       <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21">
         <v>0.34</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>526</v>
       </c>
@@ -8406,41 +9022,44 @@
       <c r="D22" t="s">
         <v>613</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22">
+        <v>0.75</v>
+      </c>
+      <c r="F22" t="s">
         <v>164</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>4</v>
       </c>
-      <c r="G22">
-        <v>7</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
         <v>614</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>402</v>
       </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
       <c r="K22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22">
         <v>0.22</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
       <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>65</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>522</v>
       </c>
@@ -8453,38 +9072,41 @@
       <c r="D23" t="s">
         <v>616</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <v>0.67</v>
+      </c>
+      <c r="F23" t="s">
         <v>179</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>6</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>9</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>617</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>618</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>6</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>9</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.81</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>514</v>
       </c>
@@ -8497,38 +9119,41 @@
       <c r="D24" t="s">
         <v>619</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24">
+        <v>0.75</v>
+      </c>
+      <c r="F24" t="s">
         <v>601</v>
       </c>
-      <c r="F24">
-        <v>8</v>
-      </c>
       <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>620</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>621</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>9</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>5</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.12</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>547</v>
       </c>
@@ -8541,35 +9166,38 @@
       <c r="D25" t="s">
         <v>623</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
         <v>624</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>6</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>9</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>244</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>5</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>10</v>
       </c>
-      <c r="K25">
-        <v>7</v>
-      </c>
       <c r="L25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>529</v>
       </c>
@@ -8582,41 +9210,44 @@
       <c r="D26" t="s">
         <v>625</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>0.64</v>
+      </c>
+      <c r="F26" t="s">
         <v>132</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>6</v>
       </c>
-      <c r="G26">
-        <v>7</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26" t="s">
         <v>626</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>575</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>10</v>
       </c>
-      <c r="K26">
-        <v>7</v>
-      </c>
       <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
         <v>0.54</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
         <v>60</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>537</v>
       </c>
@@ -8629,41 +9260,44 @@
       <c r="D27" t="s">
         <v>628</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F27" t="s">
         <v>629</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>3</v>
       </c>
-      <c r="G27">
-        <v>7</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27" t="s">
         <v>630</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>631</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>9</v>
       </c>
-      <c r="K27">
-        <v>7</v>
-      </c>
       <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
         <v>0.26</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
       <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>70</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>543</v>
       </c>
@@ -8676,34 +9310,37 @@
       <c r="D28" t="s">
         <v>633</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28">
+        <v>0.69</v>
+      </c>
+      <c r="F28" t="s">
         <v>272</v>
       </c>
-      <c r="F28">
-        <v>7</v>
-      </c>
       <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28">
         <v>4</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>634</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>179</v>
       </c>
-      <c r="J28">
-        <v>7</v>
-      </c>
       <c r="K28">
+        <v>7</v>
+      </c>
+      <c r="L28">
         <v>3</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>53</v>
       </c>
     </row>
@@ -8713,6 +9350,117 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED3A9DB-53DB-0142-9102-CC5E47CCCC08}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3969157D-A304-5A43-B6FC-9931AC0FDACA}">
   <dimension ref="A1:AU1"/>
   <sheetViews>
@@ -8909,7 +9657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172C76A7-CFA8-9242-B54B-551ED52784AA}">
   <dimension ref="A1:B59"/>
   <sheetViews>
@@ -9398,102 +10146,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B63B75-D5F4-5846-885E-3A85B2A09F26}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="51.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>